--- a/Code/Results/Cases/Case_4_182/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_182/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.6711434341023</v>
+        <v>21.23455854456145</v>
       </c>
       <c r="C2">
-        <v>19.85282079989694</v>
+        <v>13.87391521980242</v>
       </c>
       <c r="D2">
-        <v>12.22098414770775</v>
+        <v>15.08546375431524</v>
       </c>
       <c r="E2">
-        <v>13.2182926851553</v>
+        <v>16.51362543263631</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>54.39024793819073</v>
+        <v>54.23324736013105</v>
       </c>
       <c r="H2">
-        <v>15.16770638156452</v>
+        <v>20.1162518101791</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.852688177435191</v>
+        <v>9.43852394366068</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.03498305795016</v>
+        <v>18.85098631877658</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.7601812850267</v>
+        <v>20.738566854177</v>
       </c>
       <c r="C3">
-        <v>18.41894139565359</v>
+        <v>13.41222186052857</v>
       </c>
       <c r="D3">
-        <v>11.68297423918736</v>
+        <v>15.03386908170059</v>
       </c>
       <c r="E3">
-        <v>12.64686393935783</v>
+        <v>16.46319788209662</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>51.60488663936963</v>
+        <v>53.78621963549934</v>
       </c>
       <c r="H3">
-        <v>14.73887316558226</v>
+        <v>20.11172354976033</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.764158154386717</v>
+        <v>9.451990614089588</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.34102700196346</v>
+        <v>18.92887399361645</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.53153372247398</v>
+        <v>20.43442100508006</v>
       </c>
       <c r="C4">
-        <v>17.49644139601173</v>
+        <v>13.12473643310034</v>
       </c>
       <c r="D4">
-        <v>11.35307958888398</v>
+        <v>15.00590092595192</v>
       </c>
       <c r="E4">
-        <v>12.29727555778913</v>
+        <v>16.43632105992922</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>49.90125954771504</v>
+        <v>53.52959402250321</v>
       </c>
       <c r="H4">
-        <v>14.48851306970655</v>
+        <v>20.11411857892905</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.713758042947224</v>
+        <v>9.461856880183317</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.53126197519809</v>
+        <v>18.9787319142674</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.03799536457317</v>
+        <v>20.3107739834865</v>
       </c>
       <c r="C5">
-        <v>17.10973333160307</v>
+        <v>13.00677840484208</v>
       </c>
       <c r="D5">
-        <v>11.2188605382361</v>
+        <v>14.99544252470356</v>
       </c>
       <c r="E5">
-        <v>12.15523902466183</v>
+        <v>16.42640083614445</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>49.20911932093253</v>
+        <v>53.42959092383244</v>
       </c>
       <c r="H5">
-        <v>14.38967860316068</v>
+        <v>20.11639202504955</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.694182558208977</v>
+        <v>9.466278609880071</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.60943425786344</v>
+        <v>18.99956271619718</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.95846828448394</v>
+        <v>20.29026610862549</v>
       </c>
       <c r="C6">
-        <v>17.04486426432695</v>
+        <v>12.98714909521884</v>
       </c>
       <c r="D6">
-        <v>11.19659014367321</v>
+        <v>14.99376276198316</v>
       </c>
       <c r="E6">
-        <v>12.13168311893502</v>
+        <v>16.42481605805858</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>49.09433300531155</v>
+        <v>53.41326401867401</v>
       </c>
       <c r="H6">
-        <v>14.37345796839178</v>
+        <v>20.11684776055416</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.690989305546577</v>
+        <v>9.467037044148862</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.62245581902415</v>
+        <v>19.00305270617094</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.52464840475823</v>
+        <v>20.43275200230628</v>
       </c>
       <c r="C7">
-        <v>17.49127001411867</v>
+        <v>13.12314859379587</v>
       </c>
       <c r="D7">
-        <v>11.35126843368139</v>
+        <v>15.00575607232103</v>
       </c>
       <c r="E7">
-        <v>12.29535813072303</v>
+        <v>16.43618308702205</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>49.89191588712777</v>
+        <v>53.52822672187931</v>
       </c>
       <c r="H7">
-        <v>14.48716732483402</v>
+        <v>20.11414399210051</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.71349018373894</v>
+        <v>9.461914889804589</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.53231351774147</v>
+        <v>18.97901076530376</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.02358852987916</v>
+        <v>21.06357428167022</v>
       </c>
       <c r="C8">
-        <v>19.36702856488856</v>
+        <v>13.7156705538815</v>
       </c>
       <c r="D8">
-        <v>12.03543910710343</v>
+        <v>15.06690737561417</v>
       </c>
       <c r="E8">
-        <v>13.02105334193888</v>
+        <v>16.49539325209834</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>53.42869808969958</v>
+        <v>54.0754613934708</v>
       </c>
       <c r="H8">
-        <v>15.01711654483586</v>
+        <v>20.11361417840964</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.821321709952596</v>
+        <v>9.442835307929794</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.14006582352053</v>
+        <v>18.87742073328032</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.49653252752604</v>
+        <v>22.29546180594446</v>
       </c>
       <c r="C9">
-        <v>22.7217354225934</v>
+        <v>14.83776141226997</v>
       </c>
       <c r="D9">
-        <v>13.37773221353552</v>
+        <v>15.21597397923338</v>
       </c>
       <c r="E9">
-        <v>14.45139170996302</v>
+        <v>16.64365910351539</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>60.40718234679115</v>
+        <v>55.2859999757682</v>
       </c>
       <c r="H9">
-        <v>16.16253903268099</v>
+        <v>20.15378189845859</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.065753810998078</v>
+        <v>9.418122632053327</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.38611603050996</v>
+        <v>18.69426771351791</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.54153863034744</v>
+        <v>23.18683822493992</v>
       </c>
       <c r="C10">
-        <v>25.00589039109114</v>
+        <v>15.62817411778227</v>
       </c>
       <c r="D10">
-        <v>14.3631955745548</v>
+        <v>15.34279515473439</v>
       </c>
       <c r="E10">
-        <v>15.5058492852475</v>
+        <v>16.77176555402118</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>65.56429317839303</v>
+        <v>56.25285974931048</v>
       </c>
       <c r="H10">
-        <v>17.07509087149483</v>
+        <v>20.20855831442798</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.267925907908962</v>
+        <v>9.407742603057539</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.83675721630322</v>
+        <v>18.5693859254463</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.87975880795618</v>
+        <v>23.58732951699473</v>
       </c>
       <c r="C11">
-        <v>26.01030191268127</v>
+        <v>15.97863860453613</v>
       </c>
       <c r="D11">
-        <v>14.81200072591564</v>
+        <v>15.40412475773099</v>
       </c>
       <c r="E11">
-        <v>15.98710668509601</v>
+        <v>16.83409421635852</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>67.92295446637463</v>
+        <v>56.70803242440576</v>
       </c>
       <c r="H11">
-        <v>17.5076325209791</v>
+        <v>20.23897636108053</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.365475865884617</v>
+        <v>9.404714739845652</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.58671888382522</v>
+        <v>18.51465192777622</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.38029136961745</v>
+        <v>23.73810999573579</v>
       </c>
       <c r="C12">
-        <v>26.38610781178715</v>
+        <v>16.10991793628135</v>
       </c>
       <c r="D12">
-        <v>14.98214435441373</v>
+        <v>15.42785996511346</v>
       </c>
       <c r="E12">
-        <v>16.16970946132817</v>
+        <v>16.85826783069855</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>68.81882287778487</v>
+        <v>56.88246589925103</v>
       </c>
       <c r="H12">
-        <v>17.67415297185278</v>
+        <v>20.25128518734216</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.403286849241849</v>
+        <v>9.403812090524356</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.49192057492425</v>
+        <v>18.49422225004045</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.27276003534259</v>
+        <v>23.70567811476815</v>
       </c>
       <c r="C13">
-        <v>26.30536553066832</v>
+        <v>16.08171020895953</v>
       </c>
       <c r="D13">
-        <v>14.94548991049187</v>
+        <v>15.4227256386028</v>
       </c>
       <c r="E13">
-        <v>16.13036381547991</v>
+        <v>16.85303640601835</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>68.62574422988679</v>
+        <v>56.84480871603451</v>
       </c>
       <c r="H13">
-        <v>17.63816437081186</v>
+        <v>20.2485991394634</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.395103603114602</v>
+        <v>9.403995638570372</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.51234371291109</v>
+        <v>18.49860896623488</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.92105926338176</v>
+        <v>23.59975275581607</v>
       </c>
       <c r="C14">
-        <v>26.04130795245402</v>
+        <v>15.9894684420616</v>
       </c>
       <c r="D14">
-        <v>14.82599384437967</v>
+        <v>15.40606729865429</v>
       </c>
       <c r="E14">
-        <v>16.00212129663059</v>
+        <v>16.8360716185199</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>67.99659789709415</v>
+        <v>56.72234249619881</v>
       </c>
       <c r="H14">
-        <v>17.52127613175245</v>
+        <v>20.23997318680621</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.368568702099998</v>
+        <v>9.404635587853843</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.57892261467279</v>
+        <v>18.51296522432886</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.70483934901462</v>
+        <v>23.5347517265546</v>
       </c>
       <c r="C15">
-        <v>25.87898775607086</v>
+        <v>15.93277746637547</v>
       </c>
       <c r="D15">
-        <v>14.75282835892184</v>
+        <v>15.39592975859642</v>
       </c>
       <c r="E15">
-        <v>15.92362112043492</v>
+        <v>16.82575420876421</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>67.61161014085691</v>
+        <v>56.64759376575781</v>
       </c>
       <c r="H15">
-        <v>17.45004136975378</v>
+        <v>20.23479240836155</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.352430995132575</v>
+        <v>9.405059351599864</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.61968636318259</v>
+        <v>18.52179746670681</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.45318113578718</v>
+        <v>23.16055080910059</v>
       </c>
       <c r="C16">
-        <v>24.93958839896764</v>
+        <v>15.60507629092488</v>
       </c>
       <c r="D16">
-        <v>14.3338841567922</v>
+        <v>15.33885931179033</v>
       </c>
       <c r="E16">
-        <v>15.47443980358654</v>
+        <v>16.76777280286548</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>65.41047115277829</v>
+        <v>56.22341029635308</v>
       </c>
       <c r="H16">
-        <v>17.04719135926154</v>
+        <v>20.20668105689753</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.261668635720596</v>
+        <v>9.407974600090521</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.85308708370967</v>
+        <v>18.57300455085229</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.67365103192088</v>
+        <v>22.92959411111328</v>
       </c>
       <c r="C17">
-        <v>24.35471219802332</v>
+        <v>15.40161797187871</v>
       </c>
       <c r="D17">
-        <v>14.0770726991109</v>
+        <v>15.30477189354601</v>
       </c>
       <c r="E17">
-        <v>15.19936219011126</v>
+        <v>16.73323305161226</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>64.06390683266181</v>
+        <v>55.96702140029788</v>
       </c>
       <c r="H17">
-        <v>16.80465669648413</v>
+        <v>20.19084411246996</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.207462871124414</v>
+        <v>9.410197161633493</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.99617033664269</v>
+        <v>18.60494888986634</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.2208284416227</v>
+        <v>22.79629201205108</v>
       </c>
       <c r="C18">
-        <v>24.01501412698688</v>
+        <v>15.28374432966195</v>
       </c>
       <c r="D18">
-        <v>13.92939958246907</v>
+        <v>15.28550892596899</v>
       </c>
       <c r="E18">
-        <v>15.04128191811021</v>
+        <v>16.71374889252521</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>63.29051965588901</v>
+        <v>55.82100600659445</v>
       </c>
       <c r="H18">
-        <v>16.66678018358991</v>
+        <v>20.18225290713328</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.176805658477591</v>
+        <v>9.411634958529397</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.07846154409777</v>
+        <v>18.62351786176859</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.06673011206075</v>
+        <v>22.75108387038272</v>
       </c>
       <c r="C19">
-        <v>23.89942032810288</v>
+        <v>15.24369245086453</v>
       </c>
       <c r="D19">
-        <v>13.87940387307534</v>
+        <v>15.27904611761543</v>
       </c>
       <c r="E19">
-        <v>14.98777911719919</v>
+        <v>16.70721787071958</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>63.02883527060299</v>
+        <v>55.77182130180025</v>
       </c>
       <c r="H19">
-        <v>16.62037049963421</v>
+        <v>20.17943300953782</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.166513178451008</v>
+        <v>9.412149144142976</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.1063256630833</v>
+        <v>18.62983860933525</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.75709110150388</v>
+        <v>22.95422883140641</v>
       </c>
       <c r="C20">
-        <v>24.41731107890318</v>
+        <v>15.42336536387056</v>
       </c>
       <c r="D20">
-        <v>14.10440611014175</v>
+        <v>15.30836512098638</v>
       </c>
       <c r="E20">
-        <v>15.22862970934332</v>
+        <v>16.73687039270511</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>64.20712960210811</v>
+        <v>55.99416506211987</v>
       </c>
       <c r="H20">
-        <v>16.83030553061205</v>
+        <v>20.19247639561878</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.213178843371937</v>
+        <v>9.40994406226134</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.98094023168168</v>
+        <v>18.60152814504309</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.02452649549587</v>
+        <v>23.63089060180914</v>
       </c>
       <c r="C21">
-        <v>26.1189874823322</v>
+        <v>16.01660193316576</v>
       </c>
       <c r="D21">
-        <v>14.86108633747045</v>
+        <v>15.41094648917049</v>
       </c>
       <c r="E21">
-        <v>16.03977805223714</v>
+        <v>16.84103918584261</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>68.18131166645574</v>
+        <v>56.75825874199904</v>
       </c>
       <c r="H21">
-        <v>17.55553297921331</v>
+        <v>20.24248540344456</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.376338394651325</v>
+        <v>9.404440996591697</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.55937065034357</v>
+        <v>18.50874039770817</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.47047267788598</v>
+        <v>24.06795181399221</v>
       </c>
       <c r="C22">
-        <v>27.20491136429605</v>
+        <v>16.39590965987262</v>
       </c>
       <c r="D22">
-        <v>15.35683011439981</v>
+        <v>15.48096169355625</v>
       </c>
       <c r="E22">
-        <v>16.57212421925828</v>
+        <v>16.91244226036465</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>70.79503090343994</v>
+        <v>57.26963415327441</v>
       </c>
       <c r="H22">
-        <v>18.04555183604194</v>
+        <v>20.27977392501411</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.488091550031196</v>
+        <v>9.402266375354563</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.28313902935391</v>
+        <v>18.44982809623495</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.70183379497047</v>
+        <v>23.83520688637662</v>
       </c>
       <c r="C23">
-        <v>26.62756707505618</v>
+        <v>16.19427307332319</v>
       </c>
       <c r="D23">
-        <v>15.09207762526144</v>
+        <v>15.44332552857665</v>
       </c>
       <c r="E23">
-        <v>16.28773726693482</v>
+        <v>16.87403315745418</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>69.39816422457199</v>
+        <v>56.99565215219707</v>
       </c>
       <c r="H23">
-        <v>17.78246191247788</v>
+        <v>20.2594514803755</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.427951988780306</v>
+        <v>9.403296812988811</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.43066624582528</v>
+        <v>18.48111292118791</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.71938240089656</v>
+        <v>22.94309308822886</v>
       </c>
       <c r="C24">
-        <v>24.3890208873894</v>
+        <v>15.41353617011176</v>
       </c>
       <c r="D24">
-        <v>14.09204877270841</v>
+        <v>15.30673958054783</v>
       </c>
       <c r="E24">
-        <v>15.21539766904132</v>
+        <v>16.73522478748025</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>64.14237624926426</v>
+        <v>55.98188908520751</v>
       </c>
       <c r="H24">
-        <v>16.81870484991697</v>
+        <v>20.19173684041183</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.210593079950248</v>
+        <v>9.410057990097332</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.98782565927636</v>
+        <v>18.6030740290385</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.33044783652351</v>
+        <v>21.96387922905013</v>
       </c>
       <c r="C25">
-        <v>21.8472596510464</v>
+        <v>14.53953445041705</v>
       </c>
       <c r="D25">
-        <v>13.014799173733</v>
+        <v>15.17257095509634</v>
       </c>
       <c r="E25">
-        <v>14.06391402749321</v>
+        <v>16.60014642798474</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>58.51519318268693</v>
+        <v>54.94442351037438</v>
       </c>
       <c r="H25">
-        <v>15.84074403710476</v>
+        <v>20.13848557922777</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.995861048614343</v>
+        <v>9.423444544303239</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.58891722681059</v>
+        <v>18.74210732449649</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_182/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_182/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.23455854456145</v>
+        <v>26.67114343410232</v>
       </c>
       <c r="C2">
-        <v>13.87391521980242</v>
+        <v>19.85282079989696</v>
       </c>
       <c r="D2">
-        <v>15.08546375431524</v>
+        <v>12.22098414770778</v>
       </c>
       <c r="E2">
-        <v>16.51362543263631</v>
+        <v>13.2182926851553</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>54.23324736013105</v>
+        <v>54.3902479381907</v>
       </c>
       <c r="H2">
-        <v>20.1162518101791</v>
+        <v>15.1677063815645</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.43852394366068</v>
+        <v>5.852688177435188</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.85098631877658</v>
+        <v>12.03498305795022</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.738566854177</v>
+        <v>24.76018128502673</v>
       </c>
       <c r="C3">
-        <v>13.41222186052857</v>
+        <v>18.41894139565359</v>
       </c>
       <c r="D3">
-        <v>15.03386908170059</v>
+        <v>11.6829742391873</v>
       </c>
       <c r="E3">
-        <v>16.46319788209662</v>
+        <v>12.64686393935781</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>53.78621963549934</v>
+        <v>51.60488663936967</v>
       </c>
       <c r="H3">
-        <v>20.11172354976033</v>
+        <v>14.73887316558225</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.451990614089588</v>
+        <v>5.764158154386723</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.92887399361645</v>
+        <v>12.34102700196347</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.43442100508006</v>
+        <v>23.53153372247405</v>
       </c>
       <c r="C4">
-        <v>13.12473643310034</v>
+        <v>17.49644139601167</v>
       </c>
       <c r="D4">
-        <v>15.00590092595192</v>
+        <v>11.35307958888396</v>
       </c>
       <c r="E4">
-        <v>16.43632105992922</v>
+        <v>12.29727555778909</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>53.52959402250321</v>
+        <v>49.90125954771482</v>
       </c>
       <c r="H4">
-        <v>20.11411857892905</v>
+        <v>14.48851306970652</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.461856880183317</v>
+        <v>5.713758042947227</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.9787319142674</v>
+        <v>12.53126197519802</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.3107739834865</v>
+        <v>23.03799536457316</v>
       </c>
       <c r="C5">
-        <v>13.00677840484208</v>
+        <v>17.10973333160311</v>
       </c>
       <c r="D5">
-        <v>14.99544252470356</v>
+        <v>11.21886053823611</v>
       </c>
       <c r="E5">
-        <v>16.42640083614445</v>
+        <v>12.15523902466184</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>53.42959092383244</v>
+        <v>49.20911932093219</v>
       </c>
       <c r="H5">
-        <v>20.11639202504955</v>
+        <v>14.38967860316053</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.466278609880071</v>
+        <v>5.694182558208973</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.99956271619718</v>
+        <v>12.60943425786331</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.29026610862549</v>
+        <v>22.9584682844839</v>
       </c>
       <c r="C6">
-        <v>12.98714909521884</v>
+        <v>17.04486426432691</v>
       </c>
       <c r="D6">
-        <v>14.99376276198316</v>
+        <v>11.19659014367321</v>
       </c>
       <c r="E6">
-        <v>16.42481605805858</v>
+        <v>12.13168311893505</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>53.41326401867401</v>
+        <v>49.0943330053116</v>
       </c>
       <c r="H6">
-        <v>20.11684776055416</v>
+        <v>14.37345796839181</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.467037044148862</v>
+        <v>5.690989305546575</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.00305270617094</v>
+        <v>12.62245581902421</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.43275200230628</v>
+        <v>23.52464840475832</v>
       </c>
       <c r="C7">
-        <v>13.12314859379587</v>
+        <v>17.49127001411869</v>
       </c>
       <c r="D7">
-        <v>15.00575607232103</v>
+        <v>11.35126843368139</v>
       </c>
       <c r="E7">
-        <v>16.43618308702205</v>
+        <v>12.29535813072308</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>53.52822672187931</v>
+        <v>49.89191588712752</v>
       </c>
       <c r="H7">
-        <v>20.11414399210051</v>
+        <v>14.48716732483393</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.461914889804589</v>
+        <v>5.713490183738941</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.97901076530376</v>
+        <v>12.5323135177413</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.06357428167022</v>
+        <v>26.02358852987908</v>
       </c>
       <c r="C8">
-        <v>13.7156705538815</v>
+        <v>19.36702856488854</v>
       </c>
       <c r="D8">
-        <v>15.06690737561417</v>
+        <v>12.03543910710351</v>
       </c>
       <c r="E8">
-        <v>16.49539325209834</v>
+        <v>13.02105334193886</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>54.0754613934708</v>
+        <v>53.42869808969962</v>
       </c>
       <c r="H8">
-        <v>20.11361417840964</v>
+        <v>15.0171165448359</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.442835307929794</v>
+        <v>5.821321709952525</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.87742073328032</v>
+        <v>12.14006582352051</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.29546180594446</v>
+        <v>30.496532527526</v>
       </c>
       <c r="C9">
-        <v>14.83776141226997</v>
+        <v>22.72173542259337</v>
       </c>
       <c r="D9">
-        <v>15.21597397923338</v>
+        <v>13.37773221353556</v>
       </c>
       <c r="E9">
-        <v>16.64365910351539</v>
+        <v>14.45139170996304</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>55.2859999757682</v>
+        <v>60.40718234679127</v>
       </c>
       <c r="H9">
-        <v>20.15378189845859</v>
+        <v>16.16253903268102</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.418122632053327</v>
+        <v>6.065753810998001</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.69426771351791</v>
+        <v>11.3861160305099</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.18683822493992</v>
+        <v>33.54153863034745</v>
       </c>
       <c r="C10">
-        <v>15.62817411778227</v>
+        <v>25.00589039109121</v>
       </c>
       <c r="D10">
-        <v>15.34279515473439</v>
+        <v>14.36319557455481</v>
       </c>
       <c r="E10">
-        <v>16.77176555402118</v>
+        <v>15.50584928524749</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>56.25285974931048</v>
+        <v>65.56429317839306</v>
       </c>
       <c r="H10">
-        <v>20.20855831442798</v>
+        <v>17.07509087149482</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.407742603057539</v>
+        <v>6.267925907908971</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.5693859254463</v>
+        <v>10.83675721630316</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.58732951699473</v>
+        <v>34.87975880795619</v>
       </c>
       <c r="C11">
-        <v>15.97863860453613</v>
+        <v>26.01030191268117</v>
       </c>
       <c r="D11">
-        <v>15.40412475773099</v>
+        <v>14.81200072591561</v>
       </c>
       <c r="E11">
-        <v>16.83409421635852</v>
+        <v>15.98710668509598</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>56.70803242440576</v>
+        <v>67.92295446637458</v>
       </c>
       <c r="H11">
-        <v>20.23897636108053</v>
+        <v>17.5076325209791</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.404714739845652</v>
+        <v>6.365475865884624</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.51465192777622</v>
+        <v>10.58671888382525</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.73810999573579</v>
+        <v>35.3802913696175</v>
       </c>
       <c r="C12">
-        <v>16.10991793628135</v>
+        <v>26.38610781178708</v>
       </c>
       <c r="D12">
-        <v>15.42785996511346</v>
+        <v>14.98214435441375</v>
       </c>
       <c r="E12">
-        <v>16.85826783069855</v>
+        <v>16.16970946132819</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>56.88246589925103</v>
+        <v>68.81882287778488</v>
       </c>
       <c r="H12">
-        <v>20.25128518734216</v>
+        <v>17.67415297185274</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.403812090524356</v>
+        <v>6.403286849241829</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.49422225004045</v>
+        <v>10.49192057492412</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.70567811476815</v>
+        <v>35.27276003534262</v>
       </c>
       <c r="C13">
-        <v>16.08171020895953</v>
+        <v>26.30536553066824</v>
       </c>
       <c r="D13">
-        <v>15.4227256386028</v>
+        <v>14.94548991049188</v>
       </c>
       <c r="E13">
-        <v>16.85303640601835</v>
+        <v>16.13036381547992</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>56.84480871603451</v>
+        <v>68.62574422988676</v>
       </c>
       <c r="H13">
-        <v>20.2485991394634</v>
+        <v>17.63816437081186</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.403995638570372</v>
+        <v>6.395103603114616</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.49860896623488</v>
+        <v>10.51234371291109</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.59975275581607</v>
+        <v>34.92105926338172</v>
       </c>
       <c r="C14">
-        <v>15.9894684420616</v>
+        <v>26.04130795245396</v>
       </c>
       <c r="D14">
-        <v>15.40606729865429</v>
+        <v>14.82599384437961</v>
       </c>
       <c r="E14">
-        <v>16.8360716185199</v>
+        <v>16.00212129663054</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>56.72234249619881</v>
+        <v>67.99659789709396</v>
       </c>
       <c r="H14">
-        <v>20.23997318680621</v>
+        <v>17.52127613175242</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.404635587853843</v>
+        <v>6.368568702099997</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.51296522432886</v>
+        <v>10.57892261467281</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.5347517265546</v>
+        <v>34.70483934901459</v>
       </c>
       <c r="C15">
-        <v>15.93277746637547</v>
+        <v>25.87898775607075</v>
       </c>
       <c r="D15">
-        <v>15.39592975859642</v>
+        <v>14.75282835892185</v>
       </c>
       <c r="E15">
-        <v>16.82575420876421</v>
+        <v>15.92362112043492</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>56.64759376575781</v>
+        <v>67.6116101408567</v>
       </c>
       <c r="H15">
-        <v>20.23479240836155</v>
+        <v>17.45004136975379</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.405059351599864</v>
+        <v>6.35243099513259</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.52179746670681</v>
+        <v>10.61968636318274</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.16055080910059</v>
+        <v>33.45318113578723</v>
       </c>
       <c r="C16">
-        <v>15.60507629092488</v>
+        <v>24.93958839896773</v>
       </c>
       <c r="D16">
-        <v>15.33885931179033</v>
+        <v>14.33388415679219</v>
       </c>
       <c r="E16">
-        <v>16.76777280286548</v>
+        <v>15.47443980358655</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>56.22341029635308</v>
+        <v>65.41047115277836</v>
       </c>
       <c r="H16">
-        <v>20.20668105689753</v>
+        <v>17.0471913592615</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.407974600090521</v>
+        <v>6.261668635720613</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.57300455085229</v>
+        <v>10.85308708370957</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.92959411111328</v>
+        <v>32.67365103192089</v>
       </c>
       <c r="C17">
-        <v>15.40161797187871</v>
+        <v>24.35471219802336</v>
       </c>
       <c r="D17">
-        <v>15.30477189354601</v>
+        <v>14.07707269911089</v>
       </c>
       <c r="E17">
-        <v>16.73323305161226</v>
+        <v>15.19936219011128</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>55.96702140029788</v>
+        <v>64.06390683266173</v>
       </c>
       <c r="H17">
-        <v>20.19084411246996</v>
+        <v>16.80465669648416</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.410197161633493</v>
+        <v>6.207462871124428</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.60494888986634</v>
+        <v>10.99617033664268</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.79629201205108</v>
+        <v>32.22082844162266</v>
       </c>
       <c r="C18">
-        <v>15.28374432966195</v>
+        <v>24.01501412698695</v>
       </c>
       <c r="D18">
-        <v>15.28550892596899</v>
+        <v>13.92939958246917</v>
       </c>
       <c r="E18">
-        <v>16.71374889252521</v>
+        <v>15.04128191811026</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>55.82100600659445</v>
+        <v>63.29051965588901</v>
       </c>
       <c r="H18">
-        <v>20.18225290713328</v>
+        <v>16.6667801835899</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.411634958529397</v>
+        <v>6.176805658477583</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.62351786176859</v>
+        <v>11.07846154409777</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.75108387038272</v>
+        <v>32.06673011206075</v>
       </c>
       <c r="C19">
-        <v>15.24369245086453</v>
+        <v>23.8994203281029</v>
       </c>
       <c r="D19">
-        <v>15.27904611761543</v>
+        <v>13.87940387307531</v>
       </c>
       <c r="E19">
-        <v>16.70721787071958</v>
+        <v>14.98777911719918</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>55.77182130180025</v>
+        <v>63.02883527060293</v>
       </c>
       <c r="H19">
-        <v>20.17943300953782</v>
+        <v>16.62037049963419</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.412149144142976</v>
+        <v>6.166513178451001</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.62983860933525</v>
+        <v>11.1063256630833</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.95422883140641</v>
+        <v>32.75709110150386</v>
       </c>
       <c r="C20">
-        <v>15.42336536387056</v>
+        <v>24.41731107890315</v>
       </c>
       <c r="D20">
-        <v>15.30836512098638</v>
+        <v>14.10440611014176</v>
       </c>
       <c r="E20">
-        <v>16.73687039270511</v>
+        <v>15.22862970934332</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>55.99416506211987</v>
+        <v>64.20712960210811</v>
       </c>
       <c r="H20">
-        <v>20.19247639561878</v>
+        <v>16.83030553061205</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.40994406226134</v>
+        <v>6.213178843371937</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.60152814504309</v>
+        <v>10.98094023168161</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.63089060180914</v>
+        <v>35.02452649549586</v>
       </c>
       <c r="C21">
-        <v>16.01660193316576</v>
+        <v>26.11898748233215</v>
       </c>
       <c r="D21">
-        <v>15.41094648917049</v>
+        <v>14.86108633747043</v>
       </c>
       <c r="E21">
-        <v>16.84103918584261</v>
+        <v>16.03977805223712</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>56.75825874199904</v>
+        <v>68.18131166645567</v>
       </c>
       <c r="H21">
-        <v>20.24248540344456</v>
+        <v>17.55553297921332</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.404440996591697</v>
+        <v>6.376338394651274</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.50874039770817</v>
+        <v>10.55937065034363</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.06795181399221</v>
+        <v>36.47047267788589</v>
       </c>
       <c r="C22">
-        <v>16.39590965987262</v>
+        <v>27.20491136429582</v>
       </c>
       <c r="D22">
-        <v>15.48096169355625</v>
+        <v>15.35683011439979</v>
       </c>
       <c r="E22">
-        <v>16.91244226036465</v>
+        <v>16.57212421925828</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>57.26963415327441</v>
+        <v>70.79503090343977</v>
       </c>
       <c r="H22">
-        <v>20.27977392501411</v>
+        <v>18.04555183604193</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.402266375354563</v>
+        <v>6.488091550031208</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.44982809623495</v>
+        <v>10.28313902935393</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.83520688637662</v>
+        <v>35.70183379497046</v>
       </c>
       <c r="C23">
-        <v>16.19427307332319</v>
+        <v>26.62756707505622</v>
       </c>
       <c r="D23">
-        <v>15.44332552857665</v>
+        <v>15.0920776252614</v>
       </c>
       <c r="E23">
-        <v>16.87403315745418</v>
+        <v>16.28773726693479</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>56.99565215219707</v>
+        <v>69.39816422457191</v>
       </c>
       <c r="H23">
-        <v>20.2594514803755</v>
+        <v>17.78246191247787</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.403296812988811</v>
+        <v>6.427951988780281</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.48111292118791</v>
+        <v>10.43066624582524</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.94309308822886</v>
+        <v>32.71938240089653</v>
       </c>
       <c r="C24">
-        <v>15.41353617011176</v>
+        <v>24.38902088738939</v>
       </c>
       <c r="D24">
-        <v>15.30673958054783</v>
+        <v>14.09204877270841</v>
       </c>
       <c r="E24">
-        <v>16.73522478748025</v>
+        <v>15.21539766904132</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>55.98188908520751</v>
+        <v>64.14237624926426</v>
       </c>
       <c r="H24">
-        <v>20.19173684041183</v>
+        <v>16.81870484991697</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.410057990097332</v>
+        <v>6.210593079950281</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.6030740290385</v>
+        <v>10.98782565927636</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.96387922905013</v>
+        <v>29.33044783652352</v>
       </c>
       <c r="C25">
-        <v>14.53953445041705</v>
+        <v>21.84725965104644</v>
       </c>
       <c r="D25">
-        <v>15.17257095509634</v>
+        <v>13.01479917373296</v>
       </c>
       <c r="E25">
-        <v>16.60014642798474</v>
+        <v>14.06391402749317</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>54.94442351037438</v>
+        <v>58.51519318268683</v>
       </c>
       <c r="H25">
-        <v>20.13848557922777</v>
+        <v>15.84074403710468</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.423444544303239</v>
+        <v>5.995861048614317</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.74210732449649</v>
+        <v>11.58891722681058</v>
       </c>
       <c r="O25">
         <v>0</v>
